--- a/natmiOut/OldD2/LR-pairs_lrc2p/Ptprm-Ptprm.xlsx
+++ b/natmiOut/OldD2/LR-pairs_lrc2p/Ptprm-Ptprm.xlsx
@@ -14,7 +14,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="120" uniqueCount="26">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="164" uniqueCount="27">
   <si>
     <t>Sending cluster</t>
   </si>
@@ -80,6 +80,9 @@
   </si>
   <si>
     <t>FAPs</t>
+  </si>
+  <si>
+    <t>M1</t>
   </si>
   <si>
     <t>M2</t>
@@ -449,7 +452,7 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <dimension ref="A1:T26"/>
+  <dimension ref="A1:T37"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0"/>
   </sheetViews>
@@ -522,61 +525,61 @@
         <v>20</v>
       </c>
       <c r="B2" t="s">
-        <v>25</v>
+        <v>26</v>
       </c>
       <c r="C2" t="s">
-        <v>25</v>
+        <v>26</v>
       </c>
       <c r="D2" t="s">
         <v>20</v>
       </c>
       <c r="E2">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="F2">
         <v>1</v>
       </c>
       <c r="G2">
-        <v>104.052256534736</v>
+        <v>104.173824</v>
       </c>
       <c r="H2">
-        <v>104.052256534736</v>
+        <v>208.347648</v>
       </c>
       <c r="I2">
-        <v>0.5940054590688598</v>
+        <v>0.5860002699184933</v>
       </c>
       <c r="J2">
-        <v>0.5940054590688598</v>
+        <v>0.4883229748318005</v>
       </c>
       <c r="K2">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="L2">
         <v>1</v>
       </c>
       <c r="M2">
-        <v>104.052256534736</v>
+        <v>104.173824</v>
       </c>
       <c r="N2">
-        <v>104.052256534736</v>
+        <v>208.347648</v>
       </c>
       <c r="O2">
-        <v>0.5940054590688598</v>
+        <v>0.5860002699184933</v>
       </c>
       <c r="P2">
-        <v>0.5940054590688598</v>
+        <v>0.4883229748318005</v>
       </c>
       <c r="Q2">
-        <v>10826.87208997051</v>
+        <v>10852.18560678298</v>
       </c>
       <c r="R2">
-        <v>10826.87208997051</v>
+        <v>43408.7424271319</v>
       </c>
       <c r="S2">
-        <v>0.3528424854036069</v>
+        <v>0.343396316344547</v>
       </c>
       <c r="T2">
-        <v>0.3528424854036069</v>
+        <v>0.2384593277485793</v>
       </c>
     </row>
     <row r="3" spans="1:20">
@@ -584,61 +587,61 @@
         <v>20</v>
       </c>
       <c r="B3" t="s">
-        <v>25</v>
+        <v>26</v>
       </c>
       <c r="C3" t="s">
-        <v>25</v>
+        <v>26</v>
       </c>
       <c r="D3" t="s">
         <v>21</v>
       </c>
       <c r="E3">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="F3">
         <v>1</v>
       </c>
       <c r="G3">
-        <v>104.052256534736</v>
+        <v>104.173824</v>
       </c>
       <c r="H3">
-        <v>104.052256534736</v>
+        <v>208.347648</v>
       </c>
       <c r="I3">
-        <v>0.5940054590688598</v>
+        <v>0.5860002699184933</v>
       </c>
       <c r="J3">
-        <v>0.5940054590688598</v>
+        <v>0.4883229748318005</v>
       </c>
       <c r="K3">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="L3">
         <v>1</v>
       </c>
       <c r="M3">
-        <v>8.43912293968893</v>
+        <v>9.167025333333333</v>
       </c>
       <c r="N3">
-        <v>8.43912293968893</v>
+        <v>27.501076</v>
       </c>
       <c r="O3">
-        <v>0.04817661108824686</v>
+        <v>0.05156649831423103</v>
       </c>
       <c r="P3">
-        <v>0.04817661108824686</v>
+        <v>0.06445672592087735</v>
       </c>
       <c r="Q3">
-        <v>878.109785048688</v>
+        <v>954.964083678208</v>
       </c>
       <c r="R3">
-        <v>878.109785048688</v>
+        <v>5729.784502069248</v>
       </c>
       <c r="S3">
-        <v>0.028617169985856</v>
+        <v>0.03021798193089091</v>
       </c>
       <c r="T3">
-        <v>0.028617169985856</v>
+        <v>0.03147570014960085</v>
       </c>
     </row>
     <row r="4" spans="1:20">
@@ -646,61 +649,61 @@
         <v>20</v>
       </c>
       <c r="B4" t="s">
-        <v>25</v>
+        <v>26</v>
       </c>
       <c r="C4" t="s">
-        <v>25</v>
+        <v>26</v>
       </c>
       <c r="D4" t="s">
         <v>22</v>
       </c>
       <c r="E4">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="F4">
         <v>1</v>
       </c>
       <c r="G4">
-        <v>104.052256534736</v>
+        <v>104.173824</v>
       </c>
       <c r="H4">
-        <v>104.052256534736</v>
+        <v>208.347648</v>
       </c>
       <c r="I4">
-        <v>0.5940054590688598</v>
+        <v>0.5860002699184933</v>
       </c>
       <c r="J4">
-        <v>0.5940054590688598</v>
+        <v>0.4883229748318005</v>
       </c>
       <c r="K4">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="L4">
-        <v>1</v>
+        <v>0.6666666666666666</v>
       </c>
       <c r="M4">
-        <v>0.222313644575751</v>
+        <v>0.1302863333333333</v>
       </c>
       <c r="N4">
-        <v>0.222313644575751</v>
+        <v>0.390859</v>
       </c>
       <c r="O4">
-        <v>0.001269126907011439</v>
+        <v>0.0007328887773191866</v>
       </c>
       <c r="P4">
-        <v>0.001269126907011439</v>
+        <v>0.0009160911171878587</v>
       </c>
       <c r="Q4">
-        <v>23.13223637656817</v>
+        <v>13.572425558272</v>
       </c>
       <c r="R4">
-        <v>23.13223637656817</v>
+        <v>81.434553349632</v>
       </c>
       <c r="S4">
-        <v>0.0007538683110159722</v>
+        <v>0.0004294730213292778</v>
       </c>
       <c r="T4">
-        <v>0.0007538683110159722</v>
+        <v>0.0004473483395621627</v>
       </c>
     </row>
     <row r="5" spans="1:20">
@@ -708,61 +711,61 @@
         <v>20</v>
       </c>
       <c r="B5" t="s">
-        <v>25</v>
+        <v>26</v>
       </c>
       <c r="C5" t="s">
-        <v>25</v>
+        <v>26</v>
       </c>
       <c r="D5" t="s">
         <v>23</v>
       </c>
       <c r="E5">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="F5">
         <v>1</v>
       </c>
       <c r="G5">
-        <v>104.052256534736</v>
+        <v>104.173824</v>
       </c>
       <c r="H5">
-        <v>104.052256534736</v>
+        <v>208.347648</v>
       </c>
       <c r="I5">
-        <v>0.5940054590688598</v>
+        <v>0.5860002699184933</v>
       </c>
       <c r="J5">
-        <v>0.5940054590688598</v>
+        <v>0.4883229748318005</v>
       </c>
       <c r="K5">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="L5">
         <v>1</v>
       </c>
       <c r="M5">
-        <v>60.017789966406</v>
+        <v>0.236773</v>
       </c>
       <c r="N5">
-        <v>60.017789966406</v>
+        <v>0.7103189999999999</v>
       </c>
       <c r="O5">
-        <v>0.3426249085659376</v>
+        <v>0.00133189928699758</v>
       </c>
       <c r="P5">
-        <v>0.3426249085659376</v>
+        <v>0.00166483802667909</v>
       </c>
       <c r="Q5">
-        <v>6244.986478232381</v>
+        <v>24.665548829952</v>
       </c>
       <c r="R5">
-        <v>6244.986478232381</v>
+        <v>147.993292979712</v>
       </c>
       <c r="S5">
-        <v>0.2035210661011359</v>
+        <v>0.0007804933416848309</v>
       </c>
       <c r="T5">
-        <v>0.2035210661011359</v>
+        <v>0.0008129786578010376</v>
       </c>
     </row>
     <row r="6" spans="1:20">
@@ -770,123 +773,123 @@
         <v>20</v>
       </c>
       <c r="B6" t="s">
-        <v>25</v>
+        <v>26</v>
       </c>
       <c r="C6" t="s">
-        <v>25</v>
+        <v>26</v>
       </c>
       <c r="D6" t="s">
         <v>24</v>
       </c>
       <c r="E6">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="F6">
         <v>1</v>
       </c>
       <c r="G6">
-        <v>104.052256534736</v>
+        <v>104.173824</v>
       </c>
       <c r="H6">
-        <v>104.052256534736</v>
+        <v>208.347648</v>
       </c>
       <c r="I6">
-        <v>0.5940054590688598</v>
+        <v>0.5860002699184933</v>
       </c>
       <c r="J6">
-        <v>0.5940054590688598</v>
+        <v>0.4883229748318005</v>
       </c>
       <c r="K6">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="L6">
         <v>1</v>
       </c>
       <c r="M6">
-        <v>2.43905608412271</v>
+        <v>61.58354166666667</v>
       </c>
       <c r="N6">
-        <v>2.43905608412271</v>
+        <v>184.750625</v>
       </c>
       <c r="O6">
-        <v>0.01392389436994425</v>
+        <v>0.3464207288695042</v>
       </c>
       <c r="P6">
-        <v>0.01392389436994425</v>
+        <v>0.4330165263110358</v>
       </c>
       <c r="Q6">
-        <v>253.7892893677449</v>
+        <v>6415.39303088</v>
       </c>
       <c r="R6">
-        <v>253.7892893677449</v>
+        <v>38492.35818528</v>
       </c>
       <c r="S6">
-        <v>0.008270869267245049</v>
+        <v>0.2030026406228906</v>
       </c>
       <c r="T6">
-        <v>0.008270869267245049</v>
+        <v>0.2114519182795376</v>
       </c>
     </row>
     <row r="7" spans="1:20">
       <c r="A7" t="s">
-        <v>21</v>
+        <v>20</v>
       </c>
       <c r="B7" t="s">
+        <v>26</v>
+      </c>
+      <c r="C7" t="s">
+        <v>26</v>
+      </c>
+      <c r="D7" t="s">
         <v>25</v>
       </c>
-      <c r="C7" t="s">
-        <v>25</v>
-      </c>
-      <c r="D7" t="s">
-        <v>20</v>
-      </c>
       <c r="E7">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="F7">
         <v>1</v>
       </c>
       <c r="G7">
-        <v>8.43912293968893</v>
+        <v>104.173824</v>
       </c>
       <c r="H7">
-        <v>8.43912293968893</v>
+        <v>208.347648</v>
       </c>
       <c r="I7">
-        <v>0.04817661108824686</v>
+        <v>0.5860002699184933</v>
       </c>
       <c r="J7">
-        <v>0.04817661108824686</v>
+        <v>0.4883229748318005</v>
       </c>
       <c r="K7">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="L7">
         <v>1</v>
       </c>
       <c r="M7">
-        <v>104.052256534736</v>
+        <v>2.4794985</v>
       </c>
       <c r="N7">
-        <v>104.052256534736</v>
+        <v>4.958997</v>
       </c>
       <c r="O7">
-        <v>0.5940054590688598</v>
+        <v>0.0139477148334547</v>
       </c>
       <c r="P7">
-        <v>0.5940054590688598</v>
+        <v>0.01162284379241936</v>
       </c>
       <c r="Q7">
-        <v>878.109785048688</v>
+        <v>258.298840347264</v>
       </c>
       <c r="R7">
-        <v>878.109785048688</v>
+        <v>1033.195361389056</v>
       </c>
       <c r="S7">
-        <v>0.028617169985856</v>
+        <v>0.008173364657150628</v>
       </c>
       <c r="T7">
-        <v>0.028617169985856</v>
+        <v>0.005675701656719549</v>
       </c>
     </row>
     <row r="8" spans="1:20">
@@ -894,61 +897,61 @@
         <v>21</v>
       </c>
       <c r="B8" t="s">
-        <v>25</v>
+        <v>26</v>
       </c>
       <c r="C8" t="s">
-        <v>25</v>
+        <v>26</v>
       </c>
       <c r="D8" t="s">
-        <v>21</v>
+        <v>20</v>
       </c>
       <c r="E8">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="F8">
         <v>1</v>
       </c>
       <c r="G8">
-        <v>8.43912293968893</v>
+        <v>9.167025333333333</v>
       </c>
       <c r="H8">
-        <v>8.43912293968893</v>
+        <v>27.501076</v>
       </c>
       <c r="I8">
-        <v>0.04817661108824686</v>
+        <v>0.05156649831423103</v>
       </c>
       <c r="J8">
-        <v>0.04817661108824686</v>
+        <v>0.06445672592087735</v>
       </c>
       <c r="K8">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="L8">
         <v>1</v>
       </c>
       <c r="M8">
-        <v>8.43912293968893</v>
+        <v>104.173824</v>
       </c>
       <c r="N8">
-        <v>8.43912293968893</v>
+        <v>208.347648</v>
       </c>
       <c r="O8">
-        <v>0.04817661108824686</v>
+        <v>0.5860002699184933</v>
       </c>
       <c r="P8">
-        <v>0.04817661108824686</v>
+        <v>0.4883229748318005</v>
       </c>
       <c r="Q8">
-        <v>71.21879599118394</v>
+        <v>954.964083678208</v>
       </c>
       <c r="R8">
-        <v>71.21879599118394</v>
+        <v>5729.784502069248</v>
       </c>
       <c r="S8">
-        <v>0.00232098585594819</v>
+        <v>0.03021798193089091</v>
       </c>
       <c r="T8">
-        <v>0.00232098585594819</v>
+        <v>0.03147570014960085</v>
       </c>
     </row>
     <row r="9" spans="1:20">
@@ -956,61 +959,61 @@
         <v>21</v>
       </c>
       <c r="B9" t="s">
-        <v>25</v>
+        <v>26</v>
       </c>
       <c r="C9" t="s">
-        <v>25</v>
+        <v>26</v>
       </c>
       <c r="D9" t="s">
-        <v>22</v>
+        <v>21</v>
       </c>
       <c r="E9">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="F9">
         <v>1</v>
       </c>
       <c r="G9">
-        <v>8.43912293968893</v>
+        <v>9.167025333333333</v>
       </c>
       <c r="H9">
-        <v>8.43912293968893</v>
+        <v>27.501076</v>
       </c>
       <c r="I9">
-        <v>0.04817661108824686</v>
+        <v>0.05156649831423103</v>
       </c>
       <c r="J9">
-        <v>0.04817661108824686</v>
+        <v>0.06445672592087735</v>
       </c>
       <c r="K9">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="L9">
         <v>1</v>
       </c>
       <c r="M9">
-        <v>0.222313644575751</v>
+        <v>9.167025333333333</v>
       </c>
       <c r="N9">
-        <v>0.222313644575751</v>
+        <v>27.501076</v>
       </c>
       <c r="O9">
-        <v>0.001269126907011439</v>
+        <v>0.05156649831423103</v>
       </c>
       <c r="P9">
-        <v>0.001269126907011439</v>
+        <v>0.06445672592087735</v>
       </c>
       <c r="Q9">
-        <v>1.876132177745072</v>
+        <v>84.0343534619751</v>
       </c>
       <c r="R9">
-        <v>1.876132177745072</v>
+        <v>756.3091811577759</v>
       </c>
       <c r="S9">
-        <v>6.114223342071974E-05</v>
+        <v>0.002659103748391591</v>
       </c>
       <c r="T9">
-        <v>6.114223342071974E-05</v>
+        <v>0.004154669516439102</v>
       </c>
     </row>
     <row r="10" spans="1:20">
@@ -1018,61 +1021,61 @@
         <v>21</v>
       </c>
       <c r="B10" t="s">
-        <v>25</v>
+        <v>26</v>
       </c>
       <c r="C10" t="s">
-        <v>25</v>
+        <v>26</v>
       </c>
       <c r="D10" t="s">
-        <v>23</v>
+        <v>22</v>
       </c>
       <c r="E10">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="F10">
         <v>1</v>
       </c>
       <c r="G10">
-        <v>8.43912293968893</v>
+        <v>9.167025333333333</v>
       </c>
       <c r="H10">
-        <v>8.43912293968893</v>
+        <v>27.501076</v>
       </c>
       <c r="I10">
-        <v>0.04817661108824686</v>
+        <v>0.05156649831423103</v>
       </c>
       <c r="J10">
-        <v>0.04817661108824686</v>
+        <v>0.06445672592087735</v>
       </c>
       <c r="K10">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="L10">
-        <v>1</v>
+        <v>0.6666666666666666</v>
       </c>
       <c r="M10">
-        <v>60.017789966406</v>
+        <v>0.1302863333333333</v>
       </c>
       <c r="N10">
-        <v>60.017789966406</v>
+        <v>0.390859</v>
       </c>
       <c r="O10">
-        <v>0.3426249085659376</v>
+        <v>0.0007328887773191866</v>
       </c>
       <c r="P10">
-        <v>0.3426249085659376</v>
+        <v>0.0009160911171878587</v>
       </c>
       <c r="Q10">
-        <v>506.497508094929</v>
+        <v>1.194338118253778</v>
       </c>
       <c r="R10">
-        <v>506.497508094929</v>
+        <v>10.749043064284</v>
       </c>
       <c r="S10">
-        <v>0.01650650696912731</v>
+        <v>3.779250790014867E-05</v>
       </c>
       <c r="T10">
-        <v>0.01650650696912731</v>
+        <v>5.904823405912814E-05</v>
       </c>
     </row>
     <row r="11" spans="1:20">
@@ -1080,185 +1083,185 @@
         <v>21</v>
       </c>
       <c r="B11" t="s">
-        <v>25</v>
+        <v>26</v>
       </c>
       <c r="C11" t="s">
-        <v>25</v>
+        <v>26</v>
       </c>
       <c r="D11" t="s">
-        <v>24</v>
+        <v>23</v>
       </c>
       <c r="E11">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="F11">
         <v>1</v>
       </c>
       <c r="G11">
-        <v>8.43912293968893</v>
+        <v>9.167025333333333</v>
       </c>
       <c r="H11">
-        <v>8.43912293968893</v>
+        <v>27.501076</v>
       </c>
       <c r="I11">
-        <v>0.04817661108824686</v>
+        <v>0.05156649831423103</v>
       </c>
       <c r="J11">
-        <v>0.04817661108824686</v>
+        <v>0.06445672592087735</v>
       </c>
       <c r="K11">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="L11">
         <v>1</v>
       </c>
       <c r="M11">
-        <v>2.43905608412271</v>
+        <v>0.236773</v>
       </c>
       <c r="N11">
-        <v>2.43905608412271</v>
+        <v>0.7103189999999999</v>
       </c>
       <c r="O11">
-        <v>0.01392389436994425</v>
+        <v>0.00133189928699758</v>
       </c>
       <c r="P11">
-        <v>0.01392389436994425</v>
+        <v>0.00166483802667909</v>
       </c>
       <c r="Q11">
-        <v>20.58349415070781</v>
+        <v>2.170504089249333</v>
       </c>
       <c r="R11">
-        <v>20.58349415070781</v>
+        <v>19.53453680324399</v>
       </c>
       <c r="S11">
-        <v>0.0006708060438946344</v>
+        <v>6.868138233768623E-05</v>
       </c>
       <c r="T11">
-        <v>0.0006708060438946344</v>
+        <v>0.0001073100083883084</v>
       </c>
     </row>
     <row r="12" spans="1:20">
       <c r="A12" t="s">
-        <v>22</v>
+        <v>21</v>
       </c>
       <c r="B12" t="s">
-        <v>25</v>
+        <v>26</v>
       </c>
       <c r="C12" t="s">
-        <v>25</v>
+        <v>26</v>
       </c>
       <c r="D12" t="s">
-        <v>20</v>
+        <v>24</v>
       </c>
       <c r="E12">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="F12">
         <v>1</v>
       </c>
       <c r="G12">
-        <v>0.222313644575751</v>
+        <v>9.167025333333333</v>
       </c>
       <c r="H12">
-        <v>0.222313644575751</v>
+        <v>27.501076</v>
       </c>
       <c r="I12">
-        <v>0.001269126907011439</v>
+        <v>0.05156649831423103</v>
       </c>
       <c r="J12">
-        <v>0.001269126907011439</v>
+        <v>0.06445672592087735</v>
       </c>
       <c r="K12">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="L12">
         <v>1</v>
       </c>
       <c r="M12">
-        <v>104.052256534736</v>
+        <v>61.58354166666667</v>
       </c>
       <c r="N12">
-        <v>104.052256534736</v>
+        <v>184.750625</v>
       </c>
       <c r="O12">
-        <v>0.5940054590688598</v>
+        <v>0.3464207288695042</v>
       </c>
       <c r="P12">
-        <v>0.5940054590688598</v>
+        <v>0.4330165263110358</v>
       </c>
       <c r="Q12">
-        <v>23.13223637656817</v>
+        <v>564.5378865747223</v>
       </c>
       <c r="R12">
-        <v>23.13223637656817</v>
+        <v>5080.8409791725</v>
       </c>
       <c r="S12">
-        <v>0.0007538683110159722</v>
+        <v>0.01786370393126397</v>
       </c>
       <c r="T12">
-        <v>0.0007538683110159722</v>
+        <v>0.02791082755564081</v>
       </c>
     </row>
     <row r="13" spans="1:20">
       <c r="A13" t="s">
-        <v>22</v>
+        <v>21</v>
       </c>
       <c r="B13" t="s">
+        <v>26</v>
+      </c>
+      <c r="C13" t="s">
+        <v>26</v>
+      </c>
+      <c r="D13" t="s">
         <v>25</v>
       </c>
-      <c r="C13" t="s">
-        <v>25</v>
-      </c>
-      <c r="D13" t="s">
-        <v>21</v>
-      </c>
       <c r="E13">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="F13">
         <v>1</v>
       </c>
       <c r="G13">
-        <v>0.222313644575751</v>
+        <v>9.167025333333333</v>
       </c>
       <c r="H13">
-        <v>0.222313644575751</v>
+        <v>27.501076</v>
       </c>
       <c r="I13">
-        <v>0.001269126907011439</v>
+        <v>0.05156649831423103</v>
       </c>
       <c r="J13">
-        <v>0.001269126907011439</v>
+        <v>0.06445672592087735</v>
       </c>
       <c r="K13">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="L13">
         <v>1</v>
       </c>
       <c r="M13">
-        <v>8.43912293968893</v>
+        <v>2.4794985</v>
       </c>
       <c r="N13">
-        <v>8.43912293968893</v>
+        <v>4.958997</v>
       </c>
       <c r="O13">
-        <v>0.04817661108824686</v>
+        <v>0.0139477148334547</v>
       </c>
       <c r="P13">
-        <v>0.04817661108824686</v>
+        <v>0.01162284379241936</v>
       </c>
       <c r="Q13">
-        <v>1.876132177745072</v>
+        <v>22.729625563462</v>
       </c>
       <c r="R13">
-        <v>1.876132177745072</v>
+        <v>136.377753380772</v>
       </c>
       <c r="S13">
-        <v>6.114223342071974E-05</v>
+        <v>0.0007192348134467169</v>
       </c>
       <c r="T13">
-        <v>6.114223342071974E-05</v>
+        <v>0.0007491704567491455</v>
       </c>
     </row>
     <row r="14" spans="1:20">
@@ -1266,61 +1269,61 @@
         <v>22</v>
       </c>
       <c r="B14" t="s">
-        <v>25</v>
+        <v>26</v>
       </c>
       <c r="C14" t="s">
-        <v>25</v>
+        <v>26</v>
       </c>
       <c r="D14" t="s">
-        <v>22</v>
+        <v>20</v>
       </c>
       <c r="E14">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="F14">
-        <v>1</v>
+        <v>0.6666666666666666</v>
       </c>
       <c r="G14">
-        <v>0.222313644575751</v>
+        <v>0.1302863333333333</v>
       </c>
       <c r="H14">
-        <v>0.222313644575751</v>
+        <v>0.390859</v>
       </c>
       <c r="I14">
-        <v>0.001269126907011439</v>
+        <v>0.0007328887773191866</v>
       </c>
       <c r="J14">
-        <v>0.001269126907011439</v>
+        <v>0.0009160911171878587</v>
       </c>
       <c r="K14">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="L14">
         <v>1</v>
       </c>
       <c r="M14">
-        <v>0.222313644575751</v>
+        <v>104.173824</v>
       </c>
       <c r="N14">
-        <v>0.222313644575751</v>
+        <v>208.347648</v>
       </c>
       <c r="O14">
-        <v>0.001269126907011439</v>
+        <v>0.5860002699184933</v>
       </c>
       <c r="P14">
-        <v>0.001269126907011439</v>
+        <v>0.4883229748318005</v>
       </c>
       <c r="Q14">
-        <v>0.04942335656455334</v>
+        <v>13.572425558272</v>
       </c>
       <c r="R14">
-        <v>0.04942335656455334</v>
+        <v>81.434553349632</v>
       </c>
       <c r="S14">
-        <v>1.610683106100422E-06</v>
+        <v>0.0004294730213292778</v>
       </c>
       <c r="T14">
-        <v>1.610683106100422E-06</v>
+        <v>0.0004473483395621627</v>
       </c>
     </row>
     <row r="15" spans="1:20">
@@ -1328,61 +1331,61 @@
         <v>22</v>
       </c>
       <c r="B15" t="s">
-        <v>25</v>
+        <v>26</v>
       </c>
       <c r="C15" t="s">
-        <v>25</v>
+        <v>26</v>
       </c>
       <c r="D15" t="s">
-        <v>23</v>
+        <v>21</v>
       </c>
       <c r="E15">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="F15">
-        <v>1</v>
+        <v>0.6666666666666666</v>
       </c>
       <c r="G15">
-        <v>0.222313644575751</v>
+        <v>0.1302863333333333</v>
       </c>
       <c r="H15">
-        <v>0.222313644575751</v>
+        <v>0.390859</v>
       </c>
       <c r="I15">
-        <v>0.001269126907011439</v>
+        <v>0.0007328887773191866</v>
       </c>
       <c r="J15">
-        <v>0.001269126907011439</v>
+        <v>0.0009160911171878587</v>
       </c>
       <c r="K15">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="L15">
         <v>1</v>
       </c>
       <c r="M15">
-        <v>60.017789966406</v>
+        <v>9.167025333333333</v>
       </c>
       <c r="N15">
-        <v>60.017789966406</v>
+        <v>27.501076</v>
       </c>
       <c r="O15">
-        <v>0.3426249085659376</v>
+        <v>0.05156649831423103</v>
       </c>
       <c r="P15">
-        <v>0.3426249085659376</v>
+        <v>0.06445672592087735</v>
       </c>
       <c r="Q15">
-        <v>13.34277362681366</v>
+        <v>1.194338118253778</v>
       </c>
       <c r="R15">
-        <v>13.34277362681366</v>
+        <v>10.749043064284</v>
       </c>
       <c r="S15">
-        <v>0.0004348344904733655</v>
+        <v>3.779250790014867E-05</v>
       </c>
       <c r="T15">
-        <v>0.0004348344904733655</v>
+        <v>5.904823405912814E-05</v>
       </c>
     </row>
     <row r="16" spans="1:20">
@@ -1390,247 +1393,247 @@
         <v>22</v>
       </c>
       <c r="B16" t="s">
-        <v>25</v>
+        <v>26</v>
       </c>
       <c r="C16" t="s">
-        <v>25</v>
+        <v>26</v>
       </c>
       <c r="D16" t="s">
-        <v>24</v>
+        <v>22</v>
       </c>
       <c r="E16">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="F16">
-        <v>1</v>
+        <v>0.6666666666666666</v>
       </c>
       <c r="G16">
-        <v>0.222313644575751</v>
+        <v>0.1302863333333333</v>
       </c>
       <c r="H16">
-        <v>0.222313644575751</v>
+        <v>0.390859</v>
       </c>
       <c r="I16">
-        <v>0.001269126907011439</v>
+        <v>0.0007328887773191866</v>
       </c>
       <c r="J16">
-        <v>0.001269126907011439</v>
+        <v>0.0009160911171878587</v>
       </c>
       <c r="K16">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="L16">
-        <v>1</v>
+        <v>0.6666666666666666</v>
       </c>
       <c r="M16">
-        <v>2.43905608412271</v>
+        <v>0.1302863333333333</v>
       </c>
       <c r="N16">
-        <v>2.43905608412271</v>
+        <v>0.390859</v>
       </c>
       <c r="O16">
-        <v>0.01392389436994425</v>
+        <v>0.0007328887773191866</v>
       </c>
       <c r="P16">
-        <v>0.01392389436994425</v>
+        <v>0.0009160911171878587</v>
       </c>
       <c r="Q16">
-        <v>0.5422354473859792</v>
+        <v>0.01697452865344445</v>
       </c>
       <c r="R16">
-        <v>0.5422354473859792</v>
+        <v>0.152770757881</v>
       </c>
       <c r="S16">
-        <v>1.767118899528134E-05</v>
+        <v>5.371259599204122E-07</v>
       </c>
       <c r="T16">
-        <v>1.767118899528134E-05</v>
+        <v>8.39222934990499E-07</v>
       </c>
     </row>
     <row r="17" spans="1:20">
       <c r="A17" t="s">
+        <v>22</v>
+      </c>
+      <c r="B17" t="s">
+        <v>26</v>
+      </c>
+      <c r="C17" t="s">
+        <v>26</v>
+      </c>
+      <c r="D17" t="s">
         <v>23</v>
       </c>
-      <c r="B17" t="s">
-        <v>25</v>
-      </c>
-      <c r="C17" t="s">
-        <v>25</v>
-      </c>
-      <c r="D17" t="s">
-        <v>20</v>
-      </c>
       <c r="E17">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="F17">
-        <v>1</v>
+        <v>0.6666666666666666</v>
       </c>
       <c r="G17">
-        <v>60.017789966406</v>
+        <v>0.1302863333333333</v>
       </c>
       <c r="H17">
-        <v>60.017789966406</v>
+        <v>0.390859</v>
       </c>
       <c r="I17">
-        <v>0.3426249085659376</v>
+        <v>0.0007328887773191866</v>
       </c>
       <c r="J17">
-        <v>0.3426249085659376</v>
+        <v>0.0009160911171878587</v>
       </c>
       <c r="K17">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="L17">
         <v>1</v>
       </c>
       <c r="M17">
-        <v>104.052256534736</v>
+        <v>0.236773</v>
       </c>
       <c r="N17">
-        <v>104.052256534736</v>
+        <v>0.7103189999999999</v>
       </c>
       <c r="O17">
-        <v>0.5940054590688598</v>
+        <v>0.00133189928699758</v>
       </c>
       <c r="P17">
-        <v>0.5940054590688598</v>
+        <v>0.00166483802667909</v>
       </c>
       <c r="Q17">
-        <v>6244.986478232381</v>
+        <v>0.03084828600233333</v>
       </c>
       <c r="R17">
-        <v>6244.986478232381</v>
+        <v>0.277634574021</v>
       </c>
       <c r="S17">
-        <v>0.2035210661011359</v>
+        <v>9.76134039959953E-07</v>
       </c>
       <c r="T17">
-        <v>0.2035210661011359</v>
+        <v>1.525143327797278E-06</v>
       </c>
     </row>
     <row r="18" spans="1:20">
       <c r="A18" t="s">
-        <v>23</v>
+        <v>22</v>
       </c>
       <c r="B18" t="s">
-        <v>25</v>
+        <v>26</v>
       </c>
       <c r="C18" t="s">
-        <v>25</v>
+        <v>26</v>
       </c>
       <c r="D18" t="s">
-        <v>21</v>
+        <v>24</v>
       </c>
       <c r="E18">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="F18">
-        <v>1</v>
+        <v>0.6666666666666666</v>
       </c>
       <c r="G18">
-        <v>60.017789966406</v>
+        <v>0.1302863333333333</v>
       </c>
       <c r="H18">
-        <v>60.017789966406</v>
+        <v>0.390859</v>
       </c>
       <c r="I18">
-        <v>0.3426249085659376</v>
+        <v>0.0007328887773191866</v>
       </c>
       <c r="J18">
-        <v>0.3426249085659376</v>
+        <v>0.0009160911171878587</v>
       </c>
       <c r="K18">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="L18">
         <v>1</v>
       </c>
       <c r="M18">
-        <v>8.43912293968893</v>
+        <v>61.58354166666667</v>
       </c>
       <c r="N18">
-        <v>8.43912293968893</v>
+        <v>184.750625</v>
       </c>
       <c r="O18">
-        <v>0.04817661108824686</v>
+        <v>0.3464207288695042</v>
       </c>
       <c r="P18">
-        <v>0.04817661108824686</v>
+        <v>0.4330165263110358</v>
       </c>
       <c r="Q18">
-        <v>506.497508094929</v>
+        <v>8.023493837430555</v>
       </c>
       <c r="R18">
-        <v>506.497508094929</v>
+        <v>72.21144453687501</v>
       </c>
       <c r="S18">
-        <v>0.01650650696912731</v>
+        <v>0.0002538878644191924</v>
       </c>
       <c r="T18">
-        <v>0.01650650696912731</v>
+        <v>0.0003966825933490825</v>
       </c>
     </row>
     <row r="19" spans="1:20">
       <c r="A19" t="s">
-        <v>23</v>
+        <v>22</v>
       </c>
       <c r="B19" t="s">
+        <v>26</v>
+      </c>
+      <c r="C19" t="s">
+        <v>26</v>
+      </c>
+      <c r="D19" t="s">
         <v>25</v>
       </c>
-      <c r="C19" t="s">
-        <v>25</v>
-      </c>
-      <c r="D19" t="s">
-        <v>22</v>
-      </c>
       <c r="E19">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="F19">
-        <v>1</v>
+        <v>0.6666666666666666</v>
       </c>
       <c r="G19">
-        <v>60.017789966406</v>
+        <v>0.1302863333333333</v>
       </c>
       <c r="H19">
-        <v>60.017789966406</v>
+        <v>0.390859</v>
       </c>
       <c r="I19">
-        <v>0.3426249085659376</v>
+        <v>0.0007328887773191866</v>
       </c>
       <c r="J19">
-        <v>0.3426249085659376</v>
+        <v>0.0009160911171878587</v>
       </c>
       <c r="K19">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="L19">
         <v>1</v>
       </c>
       <c r="M19">
-        <v>0.222313644575751</v>
+        <v>2.4794985</v>
       </c>
       <c r="N19">
-        <v>0.222313644575751</v>
+        <v>4.958997</v>
       </c>
       <c r="O19">
-        <v>0.001269126907011439</v>
+        <v>0.0139477148334547</v>
       </c>
       <c r="P19">
-        <v>0.001269126907011439</v>
+        <v>0.01162284379241936</v>
       </c>
       <c r="Q19">
-        <v>13.34277362681366</v>
+        <v>0.3230447680705</v>
       </c>
       <c r="R19">
-        <v>13.34277362681366</v>
+        <v>1.938268608423</v>
       </c>
       <c r="S19">
-        <v>0.0004348344904733655</v>
+        <v>1.02221236706873E-05</v>
       </c>
       <c r="T19">
-        <v>0.0004348344904733655</v>
+        <v>1.064758395469742E-05</v>
       </c>
     </row>
     <row r="20" spans="1:20">
@@ -1638,61 +1641,61 @@
         <v>23</v>
       </c>
       <c r="B20" t="s">
-        <v>25</v>
+        <v>26</v>
       </c>
       <c r="C20" t="s">
-        <v>25</v>
+        <v>26</v>
       </c>
       <c r="D20" t="s">
-        <v>23</v>
+        <v>20</v>
       </c>
       <c r="E20">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="F20">
         <v>1</v>
       </c>
       <c r="G20">
-        <v>60.017789966406</v>
+        <v>0.236773</v>
       </c>
       <c r="H20">
-        <v>60.017789966406</v>
+        <v>0.7103189999999999</v>
       </c>
       <c r="I20">
-        <v>0.3426249085659376</v>
+        <v>0.00133189928699758</v>
       </c>
       <c r="J20">
-        <v>0.3426249085659376</v>
+        <v>0.00166483802667909</v>
       </c>
       <c r="K20">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="L20">
         <v>1</v>
       </c>
       <c r="M20">
-        <v>60.017789966406</v>
+        <v>104.173824</v>
       </c>
       <c r="N20">
-        <v>60.017789966406</v>
+        <v>208.347648</v>
       </c>
       <c r="O20">
-        <v>0.3426249085659376</v>
+        <v>0.5860002699184933</v>
       </c>
       <c r="P20">
-        <v>0.3426249085659376</v>
+        <v>0.4883229748318005</v>
       </c>
       <c r="Q20">
-        <v>3602.135112451625</v>
+        <v>24.665548829952</v>
       </c>
       <c r="R20">
-        <v>3602.135112451625</v>
+        <v>147.993292979712</v>
       </c>
       <c r="S20">
-        <v>0.1173918279698171</v>
+        <v>0.0007804933416848309</v>
       </c>
       <c r="T20">
-        <v>0.1173918279698171</v>
+        <v>0.0008129786578010376</v>
       </c>
     </row>
     <row r="21" spans="1:20">
@@ -1700,309 +1703,309 @@
         <v>23</v>
       </c>
       <c r="B21" t="s">
-        <v>25</v>
+        <v>26</v>
       </c>
       <c r="C21" t="s">
-        <v>25</v>
+        <v>26</v>
       </c>
       <c r="D21" t="s">
-        <v>24</v>
+        <v>21</v>
       </c>
       <c r="E21">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="F21">
         <v>1</v>
       </c>
       <c r="G21">
-        <v>60.017789966406</v>
+        <v>0.236773</v>
       </c>
       <c r="H21">
-        <v>60.017789966406</v>
+        <v>0.7103189999999999</v>
       </c>
       <c r="I21">
-        <v>0.3426249085659376</v>
+        <v>0.00133189928699758</v>
       </c>
       <c r="J21">
-        <v>0.3426249085659376</v>
+        <v>0.00166483802667909</v>
       </c>
       <c r="K21">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="L21">
         <v>1</v>
       </c>
       <c r="M21">
-        <v>2.43905608412271</v>
+        <v>9.167025333333333</v>
       </c>
       <c r="N21">
-        <v>2.43905608412271</v>
+        <v>27.501076</v>
       </c>
       <c r="O21">
-        <v>0.01392389436994425</v>
+        <v>0.05156649831423103</v>
       </c>
       <c r="P21">
-        <v>0.01392389436994425</v>
+        <v>0.06445672592087735</v>
       </c>
       <c r="Q21">
-        <v>146.3867557731615</v>
+        <v>2.170504089249333</v>
       </c>
       <c r="R21">
-        <v>146.3867557731615</v>
+        <v>19.53453680324399</v>
       </c>
       <c r="S21">
-        <v>0.004770673035383924</v>
+        <v>6.868138233768623E-05</v>
       </c>
       <c r="T21">
-        <v>0.004770673035383924</v>
+        <v>0.0001073100083883084</v>
       </c>
     </row>
     <row r="22" spans="1:20">
       <c r="A22" t="s">
-        <v>24</v>
+        <v>23</v>
       </c>
       <c r="B22" t="s">
-        <v>25</v>
+        <v>26</v>
       </c>
       <c r="C22" t="s">
-        <v>25</v>
+        <v>26</v>
       </c>
       <c r="D22" t="s">
-        <v>20</v>
+        <v>22</v>
       </c>
       <c r="E22">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="F22">
         <v>1</v>
       </c>
       <c r="G22">
-        <v>2.43905608412271</v>
+        <v>0.236773</v>
       </c>
       <c r="H22">
-        <v>2.43905608412271</v>
+        <v>0.7103189999999999</v>
       </c>
       <c r="I22">
-        <v>0.01392389436994425</v>
+        <v>0.00133189928699758</v>
       </c>
       <c r="J22">
-        <v>0.01392389436994425</v>
+        <v>0.00166483802667909</v>
       </c>
       <c r="K22">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="L22">
-        <v>1</v>
+        <v>0.6666666666666666</v>
       </c>
       <c r="M22">
-        <v>104.052256534736</v>
+        <v>0.1302863333333333</v>
       </c>
       <c r="N22">
-        <v>104.052256534736</v>
+        <v>0.390859</v>
       </c>
       <c r="O22">
-        <v>0.5940054590688598</v>
+        <v>0.0007328887773191866</v>
       </c>
       <c r="P22">
-        <v>0.5940054590688598</v>
+        <v>0.0009160911171878587</v>
       </c>
       <c r="Q22">
-        <v>253.7892893677449</v>
+        <v>0.03084828600233333</v>
       </c>
       <c r="R22">
-        <v>253.7892893677449</v>
+        <v>0.277634574021</v>
       </c>
       <c r="S22">
-        <v>0.008270869267245049</v>
+        <v>9.76134039959953E-07</v>
       </c>
       <c r="T22">
-        <v>0.008270869267245049</v>
+        <v>1.525143327797278E-06</v>
       </c>
     </row>
     <row r="23" spans="1:20">
       <c r="A23" t="s">
-        <v>24</v>
+        <v>23</v>
       </c>
       <c r="B23" t="s">
-        <v>25</v>
+        <v>26</v>
       </c>
       <c r="C23" t="s">
-        <v>25</v>
+        <v>26</v>
       </c>
       <c r="D23" t="s">
-        <v>21</v>
+        <v>23</v>
       </c>
       <c r="E23">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="F23">
         <v>1</v>
       </c>
       <c r="G23">
-        <v>2.43905608412271</v>
+        <v>0.236773</v>
       </c>
       <c r="H23">
-        <v>2.43905608412271</v>
+        <v>0.7103189999999999</v>
       </c>
       <c r="I23">
-        <v>0.01392389436994425</v>
+        <v>0.00133189928699758</v>
       </c>
       <c r="J23">
-        <v>0.01392389436994425</v>
+        <v>0.00166483802667909</v>
       </c>
       <c r="K23">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="L23">
         <v>1</v>
       </c>
       <c r="M23">
-        <v>8.43912293968893</v>
+        <v>0.236773</v>
       </c>
       <c r="N23">
-        <v>8.43912293968893</v>
+        <v>0.7103189999999999</v>
       </c>
       <c r="O23">
-        <v>0.04817661108824686</v>
+        <v>0.00133189928699758</v>
       </c>
       <c r="P23">
-        <v>0.04817661108824686</v>
+        <v>0.00166483802667909</v>
       </c>
       <c r="Q23">
-        <v>20.58349415070781</v>
+        <v>0.05606145352899999</v>
       </c>
       <c r="R23">
-        <v>20.58349415070781</v>
+        <v>0.5045530817609999</v>
       </c>
       <c r="S23">
-        <v>0.0006708060438946344</v>
+        <v>1.773955710704663E-06</v>
       </c>
       <c r="T23">
-        <v>0.0006708060438946344</v>
+        <v>2.771685655076727E-06</v>
       </c>
     </row>
     <row r="24" spans="1:20">
       <c r="A24" t="s">
+        <v>23</v>
+      </c>
+      <c r="B24" t="s">
+        <v>26</v>
+      </c>
+      <c r="C24" t="s">
+        <v>26</v>
+      </c>
+      <c r="D24" t="s">
         <v>24</v>
       </c>
-      <c r="B24" t="s">
-        <v>25</v>
-      </c>
-      <c r="C24" t="s">
-        <v>25</v>
-      </c>
-      <c r="D24" t="s">
-        <v>22</v>
-      </c>
       <c r="E24">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="F24">
         <v>1</v>
       </c>
       <c r="G24">
-        <v>2.43905608412271</v>
+        <v>0.236773</v>
       </c>
       <c r="H24">
-        <v>2.43905608412271</v>
+        <v>0.7103189999999999</v>
       </c>
       <c r="I24">
-        <v>0.01392389436994425</v>
+        <v>0.00133189928699758</v>
       </c>
       <c r="J24">
-        <v>0.01392389436994425</v>
+        <v>0.00166483802667909</v>
       </c>
       <c r="K24">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="L24">
         <v>1</v>
       </c>
       <c r="M24">
-        <v>0.222313644575751</v>
+        <v>61.58354166666667</v>
       </c>
       <c r="N24">
-        <v>0.222313644575751</v>
+        <v>184.750625</v>
       </c>
       <c r="O24">
-        <v>0.001269126907011439</v>
+        <v>0.3464207288695042</v>
       </c>
       <c r="P24">
-        <v>0.001269126907011439</v>
+        <v>0.4330165263110358</v>
       </c>
       <c r="Q24">
-        <v>0.5422354473859792</v>
+        <v>14.58131991104167</v>
       </c>
       <c r="R24">
-        <v>0.5422354473859792</v>
+        <v>131.231879199375</v>
       </c>
       <c r="S24">
-        <v>1.767118899528134E-05</v>
+        <v>0.0004613975217824748</v>
       </c>
       <c r="T24">
-        <v>1.767118899528134E-05</v>
+        <v>0.000720902379183099</v>
       </c>
     </row>
     <row r="25" spans="1:20">
       <c r="A25" t="s">
-        <v>24</v>
+        <v>23</v>
       </c>
       <c r="B25" t="s">
+        <v>26</v>
+      </c>
+      <c r="C25" t="s">
+        <v>26</v>
+      </c>
+      <c r="D25" t="s">
         <v>25</v>
       </c>
-      <c r="C25" t="s">
-        <v>25</v>
-      </c>
-      <c r="D25" t="s">
-        <v>23</v>
-      </c>
       <c r="E25">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="F25">
         <v>1</v>
       </c>
       <c r="G25">
-        <v>2.43905608412271</v>
+        <v>0.236773</v>
       </c>
       <c r="H25">
-        <v>2.43905608412271</v>
+        <v>0.7103189999999999</v>
       </c>
       <c r="I25">
-        <v>0.01392389436994425</v>
+        <v>0.00133189928699758</v>
       </c>
       <c r="J25">
-        <v>0.01392389436994425</v>
+        <v>0.00166483802667909</v>
       </c>
       <c r="K25">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="L25">
         <v>1</v>
       </c>
       <c r="M25">
-        <v>60.017789966406</v>
+        <v>2.4794985</v>
       </c>
       <c r="N25">
-        <v>60.017789966406</v>
+        <v>4.958997</v>
       </c>
       <c r="O25">
-        <v>0.3426249085659376</v>
+        <v>0.0139477148334547</v>
       </c>
       <c r="P25">
-        <v>0.3426249085659376</v>
+        <v>0.01162284379241936</v>
       </c>
       <c r="Q25">
-        <v>146.3867557731615</v>
+        <v>0.5870782983405</v>
       </c>
       <c r="R25">
-        <v>146.3867557731615</v>
+        <v>3.522469790043</v>
       </c>
       <c r="S25">
-        <v>0.004770673035383924</v>
+        <v>1.857695144192389E-05</v>
       </c>
       <c r="T25">
-        <v>0.004770673035383924</v>
+        <v>1.935015232377076E-05</v>
       </c>
     </row>
     <row r="26" spans="1:20">
@@ -2010,61 +2013,743 @@
         <v>24</v>
       </c>
       <c r="B26" t="s">
+        <v>26</v>
+      </c>
+      <c r="C26" t="s">
+        <v>26</v>
+      </c>
+      <c r="D26" t="s">
+        <v>20</v>
+      </c>
+      <c r="E26">
+        <v>3</v>
+      </c>
+      <c r="F26">
+        <v>1</v>
+      </c>
+      <c r="G26">
+        <v>61.58354166666667</v>
+      </c>
+      <c r="H26">
+        <v>184.750625</v>
+      </c>
+      <c r="I26">
+        <v>0.3464207288695042</v>
+      </c>
+      <c r="J26">
+        <v>0.4330165263110358</v>
+      </c>
+      <c r="K26">
+        <v>2</v>
+      </c>
+      <c r="L26">
+        <v>1</v>
+      </c>
+      <c r="M26">
+        <v>104.173824</v>
+      </c>
+      <c r="N26">
+        <v>208.347648</v>
+      </c>
+      <c r="O26">
+        <v>0.5860002699184933</v>
+      </c>
+      <c r="P26">
+        <v>0.4883229748318005</v>
+      </c>
+      <c r="Q26">
+        <v>6415.39303088</v>
+      </c>
+      <c r="R26">
+        <v>38492.35818528</v>
+      </c>
+      <c r="S26">
+        <v>0.2030026406228906</v>
+      </c>
+      <c r="T26">
+        <v>0.2114519182795376</v>
+      </c>
+    </row>
+    <row r="27" spans="1:20">
+      <c r="A27" t="s">
+        <v>24</v>
+      </c>
+      <c r="B27" t="s">
+        <v>26</v>
+      </c>
+      <c r="C27" t="s">
+        <v>26</v>
+      </c>
+      <c r="D27" t="s">
+        <v>21</v>
+      </c>
+      <c r="E27">
+        <v>3</v>
+      </c>
+      <c r="F27">
+        <v>1</v>
+      </c>
+      <c r="G27">
+        <v>61.58354166666667</v>
+      </c>
+      <c r="H27">
+        <v>184.750625</v>
+      </c>
+      <c r="I27">
+        <v>0.3464207288695042</v>
+      </c>
+      <c r="J27">
+        <v>0.4330165263110358</v>
+      </c>
+      <c r="K27">
+        <v>3</v>
+      </c>
+      <c r="L27">
+        <v>1</v>
+      </c>
+      <c r="M27">
+        <v>9.167025333333333</v>
+      </c>
+      <c r="N27">
+        <v>27.501076</v>
+      </c>
+      <c r="O27">
+        <v>0.05156649831423103</v>
+      </c>
+      <c r="P27">
+        <v>0.06445672592087735</v>
+      </c>
+      <c r="Q27">
+        <v>564.5378865747223</v>
+      </c>
+      <c r="R27">
+        <v>5080.8409791725</v>
+      </c>
+      <c r="S27">
+        <v>0.01786370393126397</v>
+      </c>
+      <c r="T27">
+        <v>0.02791082755564081</v>
+      </c>
+    </row>
+    <row r="28" spans="1:20">
+      <c r="A28" t="s">
+        <v>24</v>
+      </c>
+      <c r="B28" t="s">
+        <v>26</v>
+      </c>
+      <c r="C28" t="s">
+        <v>26</v>
+      </c>
+      <c r="D28" t="s">
+        <v>22</v>
+      </c>
+      <c r="E28">
+        <v>3</v>
+      </c>
+      <c r="F28">
+        <v>1</v>
+      </c>
+      <c r="G28">
+        <v>61.58354166666667</v>
+      </c>
+      <c r="H28">
+        <v>184.750625</v>
+      </c>
+      <c r="I28">
+        <v>0.3464207288695042</v>
+      </c>
+      <c r="J28">
+        <v>0.4330165263110358</v>
+      </c>
+      <c r="K28">
+        <v>2</v>
+      </c>
+      <c r="L28">
+        <v>0.6666666666666666</v>
+      </c>
+      <c r="M28">
+        <v>0.1302863333333333</v>
+      </c>
+      <c r="N28">
+        <v>0.390859</v>
+      </c>
+      <c r="O28">
+        <v>0.0007328887773191866</v>
+      </c>
+      <c r="P28">
+        <v>0.0009160911171878587</v>
+      </c>
+      <c r="Q28">
+        <v>8.023493837430555</v>
+      </c>
+      <c r="R28">
+        <v>72.21144453687501</v>
+      </c>
+      <c r="S28">
+        <v>0.0002538878644191924</v>
+      </c>
+      <c r="T28">
+        <v>0.0003966825933490825</v>
+      </c>
+    </row>
+    <row r="29" spans="1:20">
+      <c r="A29" t="s">
+        <v>24</v>
+      </c>
+      <c r="B29" t="s">
+        <v>26</v>
+      </c>
+      <c r="C29" t="s">
+        <v>26</v>
+      </c>
+      <c r="D29" t="s">
+        <v>23</v>
+      </c>
+      <c r="E29">
+        <v>3</v>
+      </c>
+      <c r="F29">
+        <v>1</v>
+      </c>
+      <c r="G29">
+        <v>61.58354166666667</v>
+      </c>
+      <c r="H29">
+        <v>184.750625</v>
+      </c>
+      <c r="I29">
+        <v>0.3464207288695042</v>
+      </c>
+      <c r="J29">
+        <v>0.4330165263110358</v>
+      </c>
+      <c r="K29">
+        <v>3</v>
+      </c>
+      <c r="L29">
+        <v>1</v>
+      </c>
+      <c r="M29">
+        <v>0.236773</v>
+      </c>
+      <c r="N29">
+        <v>0.7103189999999999</v>
+      </c>
+      <c r="O29">
+        <v>0.00133189928699758</v>
+      </c>
+      <c r="P29">
+        <v>0.00166483802667909</v>
+      </c>
+      <c r="Q29">
+        <v>14.58131991104167</v>
+      </c>
+      <c r="R29">
+        <v>131.231879199375</v>
+      </c>
+      <c r="S29">
+        <v>0.0004613975217824748</v>
+      </c>
+      <c r="T29">
+        <v>0.000720902379183099</v>
+      </c>
+    </row>
+    <row r="30" spans="1:20">
+      <c r="A30" t="s">
+        <v>24</v>
+      </c>
+      <c r="B30" t="s">
+        <v>26</v>
+      </c>
+      <c r="C30" t="s">
+        <v>26</v>
+      </c>
+      <c r="D30" t="s">
+        <v>24</v>
+      </c>
+      <c r="E30">
+        <v>3</v>
+      </c>
+      <c r="F30">
+        <v>1</v>
+      </c>
+      <c r="G30">
+        <v>61.58354166666667</v>
+      </c>
+      <c r="H30">
+        <v>184.750625</v>
+      </c>
+      <c r="I30">
+        <v>0.3464207288695042</v>
+      </c>
+      <c r="J30">
+        <v>0.4330165263110358</v>
+      </c>
+      <c r="K30">
+        <v>3</v>
+      </c>
+      <c r="L30">
+        <v>1</v>
+      </c>
+      <c r="M30">
+        <v>61.58354166666667</v>
+      </c>
+      <c r="N30">
+        <v>184.750625</v>
+      </c>
+      <c r="O30">
+        <v>0.3464207288695042</v>
+      </c>
+      <c r="P30">
+        <v>0.4330165263110358</v>
+      </c>
+      <c r="Q30">
+        <v>3792.53260421007</v>
+      </c>
+      <c r="R30">
+        <v>34132.79343789063</v>
+      </c>
+      <c r="S30">
+        <v>0.1200073213904785</v>
+      </c>
+      <c r="T30">
+        <v>0.1875033120584759</v>
+      </c>
+    </row>
+    <row r="31" spans="1:20">
+      <c r="A31" t="s">
+        <v>24</v>
+      </c>
+      <c r="B31" t="s">
+        <v>26</v>
+      </c>
+      <c r="C31" t="s">
+        <v>26</v>
+      </c>
+      <c r="D31" t="s">
         <v>25</v>
       </c>
-      <c r="C26" t="s">
+      <c r="E31">
+        <v>3</v>
+      </c>
+      <c r="F31">
+        <v>1</v>
+      </c>
+      <c r="G31">
+        <v>61.58354166666667</v>
+      </c>
+      <c r="H31">
+        <v>184.750625</v>
+      </c>
+      <c r="I31">
+        <v>0.3464207288695042</v>
+      </c>
+      <c r="J31">
+        <v>0.4330165263110358</v>
+      </c>
+      <c r="K31">
+        <v>2</v>
+      </c>
+      <c r="L31">
+        <v>1</v>
+      </c>
+      <c r="M31">
+        <v>2.4794985</v>
+      </c>
+      <c r="N31">
+        <v>4.958997</v>
+      </c>
+      <c r="O31">
+        <v>0.0139477148334547</v>
+      </c>
+      <c r="P31">
+        <v>0.01162284379241936</v>
+      </c>
+      <c r="Q31">
+        <v>152.6962991871875</v>
+      </c>
+      <c r="R31">
+        <v>916.1777951231251</v>
+      </c>
+      <c r="S31">
+        <v>0.004831777538669373</v>
+      </c>
+      <c r="T31">
+        <v>0.005032883444849218</v>
+      </c>
+    </row>
+    <row r="32" spans="1:20">
+      <c r="A32" t="s">
         <v>25</v>
       </c>
-      <c r="D26" t="s">
+      <c r="B32" t="s">
+        <v>26</v>
+      </c>
+      <c r="C32" t="s">
+        <v>26</v>
+      </c>
+      <c r="D32" t="s">
+        <v>20</v>
+      </c>
+      <c r="E32">
+        <v>2</v>
+      </c>
+      <c r="F32">
+        <v>1</v>
+      </c>
+      <c r="G32">
+        <v>2.4794985</v>
+      </c>
+      <c r="H32">
+        <v>4.958997</v>
+      </c>
+      <c r="I32">
+        <v>0.0139477148334547</v>
+      </c>
+      <c r="J32">
+        <v>0.01162284379241936</v>
+      </c>
+      <c r="K32">
+        <v>2</v>
+      </c>
+      <c r="L32">
+        <v>1</v>
+      </c>
+      <c r="M32">
+        <v>104.173824</v>
+      </c>
+      <c r="N32">
+        <v>208.347648</v>
+      </c>
+      <c r="O32">
+        <v>0.5860002699184933</v>
+      </c>
+      <c r="P32">
+        <v>0.4883229748318005</v>
+      </c>
+      <c r="Q32">
+        <v>258.298840347264</v>
+      </c>
+      <c r="R32">
+        <v>1033.195361389056</v>
+      </c>
+      <c r="S32">
+        <v>0.008173364657150628</v>
+      </c>
+      <c r="T32">
+        <v>0.005675701656719549</v>
+      </c>
+    </row>
+    <row r="33" spans="1:20">
+      <c r="A33" t="s">
+        <v>25</v>
+      </c>
+      <c r="B33" t="s">
+        <v>26</v>
+      </c>
+      <c r="C33" t="s">
+        <v>26</v>
+      </c>
+      <c r="D33" t="s">
+        <v>21</v>
+      </c>
+      <c r="E33">
+        <v>2</v>
+      </c>
+      <c r="F33">
+        <v>1</v>
+      </c>
+      <c r="G33">
+        <v>2.4794985</v>
+      </c>
+      <c r="H33">
+        <v>4.958997</v>
+      </c>
+      <c r="I33">
+        <v>0.0139477148334547</v>
+      </c>
+      <c r="J33">
+        <v>0.01162284379241936</v>
+      </c>
+      <c r="K33">
+        <v>3</v>
+      </c>
+      <c r="L33">
+        <v>1</v>
+      </c>
+      <c r="M33">
+        <v>9.167025333333333</v>
+      </c>
+      <c r="N33">
+        <v>27.501076</v>
+      </c>
+      <c r="O33">
+        <v>0.05156649831423103</v>
+      </c>
+      <c r="P33">
+        <v>0.06445672592087735</v>
+      </c>
+      <c r="Q33">
+        <v>22.729625563462</v>
+      </c>
+      <c r="R33">
+        <v>136.377753380772</v>
+      </c>
+      <c r="S33">
+        <v>0.0007192348134467169</v>
+      </c>
+      <c r="T33">
+        <v>0.0007491704567491455</v>
+      </c>
+    </row>
+    <row r="34" spans="1:20">
+      <c r="A34" t="s">
+        <v>25</v>
+      </c>
+      <c r="B34" t="s">
+        <v>26</v>
+      </c>
+      <c r="C34" t="s">
+        <v>26</v>
+      </c>
+      <c r="D34" t="s">
+        <v>22</v>
+      </c>
+      <c r="E34">
+        <v>2</v>
+      </c>
+      <c r="F34">
+        <v>1</v>
+      </c>
+      <c r="G34">
+        <v>2.4794985</v>
+      </c>
+      <c r="H34">
+        <v>4.958997</v>
+      </c>
+      <c r="I34">
+        <v>0.0139477148334547</v>
+      </c>
+      <c r="J34">
+        <v>0.01162284379241936</v>
+      </c>
+      <c r="K34">
+        <v>2</v>
+      </c>
+      <c r="L34">
+        <v>0.6666666666666666</v>
+      </c>
+      <c r="M34">
+        <v>0.1302863333333333</v>
+      </c>
+      <c r="N34">
+        <v>0.390859</v>
+      </c>
+      <c r="O34">
+        <v>0.0007328887773191866</v>
+      </c>
+      <c r="P34">
+        <v>0.0009160911171878587</v>
+      </c>
+      <c r="Q34">
+        <v>0.3230447680705</v>
+      </c>
+      <c r="R34">
+        <v>1.938268608423</v>
+      </c>
+      <c r="S34">
+        <v>1.02221236706873E-05</v>
+      </c>
+      <c r="T34">
+        <v>1.064758395469742E-05</v>
+      </c>
+    </row>
+    <row r="35" spans="1:20">
+      <c r="A35" t="s">
+        <v>25</v>
+      </c>
+      <c r="B35" t="s">
+        <v>26</v>
+      </c>
+      <c r="C35" t="s">
+        <v>26</v>
+      </c>
+      <c r="D35" t="s">
+        <v>23</v>
+      </c>
+      <c r="E35">
+        <v>2</v>
+      </c>
+      <c r="F35">
+        <v>1</v>
+      </c>
+      <c r="G35">
+        <v>2.4794985</v>
+      </c>
+      <c r="H35">
+        <v>4.958997</v>
+      </c>
+      <c r="I35">
+        <v>0.0139477148334547</v>
+      </c>
+      <c r="J35">
+        <v>0.01162284379241936</v>
+      </c>
+      <c r="K35">
+        <v>3</v>
+      </c>
+      <c r="L35">
+        <v>1</v>
+      </c>
+      <c r="M35">
+        <v>0.236773</v>
+      </c>
+      <c r="N35">
+        <v>0.7103189999999999</v>
+      </c>
+      <c r="O35">
+        <v>0.00133189928699758</v>
+      </c>
+      <c r="P35">
+        <v>0.00166483802667909</v>
+      </c>
+      <c r="Q35">
+        <v>0.5870782983405</v>
+      </c>
+      <c r="R35">
+        <v>3.522469790043</v>
+      </c>
+      <c r="S35">
+        <v>1.857695144192389E-05</v>
+      </c>
+      <c r="T35">
+        <v>1.935015232377076E-05</v>
+      </c>
+    </row>
+    <row r="36" spans="1:20">
+      <c r="A36" t="s">
+        <v>25</v>
+      </c>
+      <c r="B36" t="s">
+        <v>26</v>
+      </c>
+      <c r="C36" t="s">
+        <v>26</v>
+      </c>
+      <c r="D36" t="s">
         <v>24</v>
       </c>
-      <c r="E26">
-        <v>1</v>
-      </c>
-      <c r="F26">
-        <v>1</v>
-      </c>
-      <c r="G26">
-        <v>2.43905608412271</v>
-      </c>
-      <c r="H26">
-        <v>2.43905608412271</v>
-      </c>
-      <c r="I26">
-        <v>0.01392389436994425</v>
-      </c>
-      <c r="J26">
-        <v>0.01392389436994425</v>
-      </c>
-      <c r="K26">
-        <v>1</v>
-      </c>
-      <c r="L26">
-        <v>1</v>
-      </c>
-      <c r="M26">
-        <v>2.43905608412271</v>
-      </c>
-      <c r="N26">
-        <v>2.43905608412271</v>
-      </c>
-      <c r="O26">
-        <v>0.01392389436994425</v>
-      </c>
-      <c r="P26">
-        <v>0.01392389436994425</v>
-      </c>
-      <c r="Q26">
-        <v>5.948994581496009</v>
-      </c>
-      <c r="R26">
-        <v>5.948994581496009</v>
-      </c>
-      <c r="S26">
-        <v>0.0001938748344253653</v>
-      </c>
-      <c r="T26">
-        <v>0.0001938748344253653</v>
+      <c r="E36">
+        <v>2</v>
+      </c>
+      <c r="F36">
+        <v>1</v>
+      </c>
+      <c r="G36">
+        <v>2.4794985</v>
+      </c>
+      <c r="H36">
+        <v>4.958997</v>
+      </c>
+      <c r="I36">
+        <v>0.0139477148334547</v>
+      </c>
+      <c r="J36">
+        <v>0.01162284379241936</v>
+      </c>
+      <c r="K36">
+        <v>3</v>
+      </c>
+      <c r="L36">
+        <v>1</v>
+      </c>
+      <c r="M36">
+        <v>61.58354166666667</v>
+      </c>
+      <c r="N36">
+        <v>184.750625</v>
+      </c>
+      <c r="O36">
+        <v>0.3464207288695042</v>
+      </c>
+      <c r="P36">
+        <v>0.4330165263110358</v>
+      </c>
+      <c r="Q36">
+        <v>152.6962991871875</v>
+      </c>
+      <c r="R36">
+        <v>916.1777951231251</v>
+      </c>
+      <c r="S36">
+        <v>0.004831777538669373</v>
+      </c>
+      <c r="T36">
+        <v>0.005032883444849218</v>
+      </c>
+    </row>
+    <row r="37" spans="1:20">
+      <c r="A37" t="s">
+        <v>25</v>
+      </c>
+      <c r="B37" t="s">
+        <v>26</v>
+      </c>
+      <c r="C37" t="s">
+        <v>26</v>
+      </c>
+      <c r="D37" t="s">
+        <v>25</v>
+      </c>
+      <c r="E37">
+        <v>2</v>
+      </c>
+      <c r="F37">
+        <v>1</v>
+      </c>
+      <c r="G37">
+        <v>2.4794985</v>
+      </c>
+      <c r="H37">
+        <v>4.958997</v>
+      </c>
+      <c r="I37">
+        <v>0.0139477148334547</v>
+      </c>
+      <c r="J37">
+        <v>0.01162284379241936</v>
+      </c>
+      <c r="K37">
+        <v>2</v>
+      </c>
+      <c r="L37">
+        <v>1</v>
+      </c>
+      <c r="M37">
+        <v>2.4794985</v>
+      </c>
+      <c r="N37">
+        <v>4.958997</v>
+      </c>
+      <c r="O37">
+        <v>0.0139477148334547</v>
+      </c>
+      <c r="P37">
+        <v>0.01162284379241936</v>
+      </c>
+      <c r="Q37">
+        <v>6.14791281150225</v>
+      </c>
+      <c r="R37">
+        <v>24.591651246009</v>
+      </c>
+      <c r="S37">
+        <v>0.0001945387490753723</v>
+      </c>
+      <c r="T37">
+        <v>0.0001350904978229813</v>
       </c>
     </row>
   </sheetData>
